--- a/fMRI/fx/models/cyb/fMRI_contrasts_wevents.xlsx
+++ b/fMRI/fx/models/cyb/fMRI_contrasts_wevents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresacheng/projects/dsnlab/TDS/TDS_scripts/fMRI/fx/models/cyb/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B4CD7-7F9E-1A49-86EE-C3A22A458515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="39100" windowHeight="23520" tabRatio="500" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="6100" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full (w cont)" sheetId="1" r:id="rId1"/>
@@ -16,8 +22,9 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
     <sheet name="events_meanCpmod" sheetId="10" r:id="rId8"/>
     <sheet name="events_meanCpmod_noquad" sheetId="12" r:id="rId9"/>
+    <sheet name="events_meanCpmod_quad" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="186">
   <si>
     <t>inc</t>
   </si>
@@ -590,7 +597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2950,6 +2957,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3274,21 +3289,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="15" max="19" width="2.6640625" customWidth="1"/>
     <col min="29" max="33" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3459,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3560,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3661,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3762,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3863,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3964,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4065,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4166,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4368,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4469,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4671,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4772,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4873,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4974,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5075,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5277,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5378,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5479,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5580,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5681,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6085,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6186,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6287,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6388,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6489,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6691,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6792,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6893,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6994,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="8"/>
@@ -7027,167 +7042,167 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -7203,22 +7218,1245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00542358-4207-8A4C-B709-A01849DD7013}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="C16:W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:AD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="12" max="16" width="4.83203125" customWidth="1"/>
     <col min="26" max="30" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7283,7 +8521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7375,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7467,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7559,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7651,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7743,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7835,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7927,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8019,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8111,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8203,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8295,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8387,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8479,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8571,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="8" customFormat="1">
+    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8663,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1">
+    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8755,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="8" customFormat="1">
+    <row r="18" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8847,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1">
+    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8939,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1">
+    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9031,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1">
+    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9123,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="8" customFormat="1">
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9215,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="8" customFormat="1">
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9307,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="8" customFormat="1">
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9399,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="8" customFormat="1">
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9491,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="8" customFormat="1">
+    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9583,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="8" customFormat="1">
+    <row r="27" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9675,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="8" customFormat="1">
+    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9767,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="8" customFormat="1">
+    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9859,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="8" customFormat="1">
+    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9951,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="8" customFormat="1">
+    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10043,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="8" customFormat="1">
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10135,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="8" customFormat="1">
+    <row r="33" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10227,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="8" customFormat="1">
+    <row r="34" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10319,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="8" customFormat="1">
+    <row r="35" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10411,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="8" customFormat="1">
+    <row r="36" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10503,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="8" customFormat="1">
+    <row r="37" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10595,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="8" customFormat="1">
+    <row r="38" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10687,12 +11925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="8" customFormat="1"/>
-    <row r="40" spans="1:30" s="8" customFormat="1"/>
-    <row r="41" spans="1:30" s="8" customFormat="1"/>
-    <row r="42" spans="1:30" s="8" customFormat="1"/>
-    <row r="43" spans="1:30" s="8" customFormat="1"/>
-    <row r="44" spans="1:30">
+    <row r="39" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="U44" s="8"/>
@@ -10701,167 +11939,167 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -10878,336 +12116,336 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -11224,16 +12462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D252" sqref="A1:D252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11247,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11261,7 +12499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11275,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11289,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11303,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11317,7 +12555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11331,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11345,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11359,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11373,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11387,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -11401,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -11415,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -11429,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -11443,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -11457,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11471,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -11485,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11499,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -11513,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -11527,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -11541,7 +12779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -11555,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -11569,7 +12807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -11583,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -11597,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -11611,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -11625,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -11639,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -11653,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -11667,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -11681,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -11695,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -11709,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -11723,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -11737,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -11751,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -11765,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -11779,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -11793,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -11807,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -11821,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -11835,7 +13073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -11849,7 +13087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -11863,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -11877,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -11891,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -11905,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -11919,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -11933,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -11947,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -11961,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -11975,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -11989,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -12003,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -12017,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -12031,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -12045,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -12059,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -12073,7 +13311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -12087,7 +13325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -12101,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -12115,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -12129,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -12143,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -12157,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -12171,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -12185,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -12199,7 +13437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -12213,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -12227,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9</v>
       </c>
@@ -12241,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10</v>
       </c>
@@ -12255,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11</v>
       </c>
@@ -12269,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>12</v>
       </c>
@@ -12283,7 +13521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>13</v>
       </c>
@@ -12297,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>14</v>
       </c>
@@ -12311,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15</v>
       </c>
@@ -12325,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>16</v>
       </c>
@@ -12339,7 +13577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>17</v>
       </c>
@@ -12353,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>18</v>
       </c>
@@ -12367,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>19</v>
       </c>
@@ -12381,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20</v>
       </c>
@@ -12395,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21</v>
       </c>
@@ -12409,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>22</v>
       </c>
@@ -12423,7 +13661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>23</v>
       </c>
@@ -12437,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>24</v>
       </c>
@@ -12451,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>25</v>
       </c>
@@ -12465,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>26</v>
       </c>
@@ -12479,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>27</v>
       </c>
@@ -12493,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>28</v>
       </c>
@@ -12507,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>29</v>
       </c>
@@ -12521,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>30</v>
       </c>
@@ -12535,7 +13773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>31</v>
       </c>
@@ -12549,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>32</v>
       </c>
@@ -12563,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>33</v>
       </c>
@@ -12577,7 +13815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>34</v>
       </c>
@@ -12591,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>35</v>
       </c>
@@ -12605,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>36</v>
       </c>
@@ -12619,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>37</v>
       </c>
@@ -12633,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -12647,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>39</v>
       </c>
@@ -12661,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>40</v>
       </c>
@@ -12675,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>41</v>
       </c>
@@ -12689,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>42</v>
       </c>
@@ -12703,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>43</v>
       </c>
@@ -12717,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>44</v>
       </c>
@@ -12731,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>45</v>
       </c>
@@ -12745,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>46</v>
       </c>
@@ -12759,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>47</v>
       </c>
@@ -12773,7 +14011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>48</v>
       </c>
@@ -12787,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>49</v>
       </c>
@@ -12801,7 +14039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>50</v>
       </c>
@@ -12815,7 +14053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>51</v>
       </c>
@@ -12829,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>52</v>
       </c>
@@ -12843,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>53</v>
       </c>
@@ -12857,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>54</v>
       </c>
@@ -12871,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>55</v>
       </c>
@@ -12885,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>56</v>
       </c>
@@ -12899,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>57</v>
       </c>
@@ -12913,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>58</v>
       </c>
@@ -12927,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>59</v>
       </c>
@@ -12941,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>60</v>
       </c>
@@ -12955,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>61</v>
       </c>
@@ -12969,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>62</v>
       </c>
@@ -12983,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>63</v>
       </c>
@@ -12997,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -13011,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
@@ -13025,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
@@ -13039,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4</v>
       </c>
@@ -13053,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -13067,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -13081,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -13095,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8</v>
       </c>
@@ -13109,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9</v>
       </c>
@@ -13123,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10</v>
       </c>
@@ -13137,7 +14375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11</v>
       </c>
@@ -13151,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>12</v>
       </c>
@@ -13165,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13</v>
       </c>
@@ -13179,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>14</v>
       </c>
@@ -13193,7 +14431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>15</v>
       </c>
@@ -13207,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>16</v>
       </c>
@@ -13221,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>17</v>
       </c>
@@ -13235,7 +14473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>18</v>
       </c>
@@ -13249,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>19</v>
       </c>
@@ -13263,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>20</v>
       </c>
@@ -13277,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>21</v>
       </c>
@@ -13291,7 +14529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>22</v>
       </c>
@@ -13305,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>23</v>
       </c>
@@ -13319,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>24</v>
       </c>
@@ -13333,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>25</v>
       </c>
@@ -13347,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>26</v>
       </c>
@@ -13361,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>27</v>
       </c>
@@ -13375,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>28</v>
       </c>
@@ -13389,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>29</v>
       </c>
@@ -13403,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>30</v>
       </c>
@@ -13417,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>31</v>
       </c>
@@ -13431,7 +14669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>32</v>
       </c>
@@ -13445,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>33</v>
       </c>
@@ -13459,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>34</v>
       </c>
@@ -13473,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>35</v>
       </c>
@@ -13487,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>36</v>
       </c>
@@ -13501,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>37</v>
       </c>
@@ -13515,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>38</v>
       </c>
@@ -13529,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>39</v>
       </c>
@@ -13543,7 +14781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>40</v>
       </c>
@@ -13557,7 +14795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>41</v>
       </c>
@@ -13571,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>42</v>
       </c>
@@ -13585,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>43</v>
       </c>
@@ -13599,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>44</v>
       </c>
@@ -13613,7 +14851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>45</v>
       </c>
@@ -13627,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>46</v>
       </c>
@@ -13641,7 +14879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>47</v>
       </c>
@@ -13655,7 +14893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>48</v>
       </c>
@@ -13669,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>49</v>
       </c>
@@ -13683,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>50</v>
       </c>
@@ -13697,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>51</v>
       </c>
@@ -13711,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>52</v>
       </c>
@@ -13725,7 +14963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>53</v>
       </c>
@@ -13739,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>54</v>
       </c>
@@ -13753,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>55</v>
       </c>
@@ -13767,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>56</v>
       </c>
@@ -13781,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>57</v>
       </c>
@@ -13795,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>58</v>
       </c>
@@ -13809,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>59</v>
       </c>
@@ -13823,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>60</v>
       </c>
@@ -13837,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>61</v>
       </c>
@@ -13851,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>62</v>
       </c>
@@ -13865,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>63</v>
       </c>
@@ -13879,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -13893,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2</v>
       </c>
@@ -13907,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3</v>
       </c>
@@ -13921,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -13935,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>5</v>
       </c>
@@ -13949,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>6</v>
       </c>
@@ -13963,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>7</v>
       </c>
@@ -13977,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -13991,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9</v>
       </c>
@@ -14005,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>10</v>
       </c>
@@ -14019,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11</v>
       </c>
@@ -14033,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>12</v>
       </c>
@@ -14047,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>13</v>
       </c>
@@ -14061,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>14</v>
       </c>
@@ -14075,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>15</v>
       </c>
@@ -14089,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>16</v>
       </c>
@@ -14103,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>17</v>
       </c>
@@ -14117,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>18</v>
       </c>
@@ -14131,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>19</v>
       </c>
@@ -14145,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>20</v>
       </c>
@@ -14159,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>21</v>
       </c>
@@ -14173,7 +15411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>22</v>
       </c>
@@ -14187,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>23</v>
       </c>
@@ -14201,7 +15439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>24</v>
       </c>
@@ -14215,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>25</v>
       </c>
@@ -14229,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>26</v>
       </c>
@@ -14243,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>27</v>
       </c>
@@ -14257,7 +15495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>28</v>
       </c>
@@ -14271,7 +15509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>29</v>
       </c>
@@ -14285,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>30</v>
       </c>
@@ -14299,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>31</v>
       </c>
@@ -14313,7 +15551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>32</v>
       </c>
@@ -14327,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>33</v>
       </c>
@@ -14341,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>34</v>
       </c>
@@ -14355,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>35</v>
       </c>
@@ -14369,7 +15607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>36</v>
       </c>
@@ -14383,7 +15621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>37</v>
       </c>
@@ -14397,7 +15635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>38</v>
       </c>
@@ -14411,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>39</v>
       </c>
@@ -14425,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>40</v>
       </c>
@@ -14439,7 +15677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>41</v>
       </c>
@@ -14453,7 +15691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>42</v>
       </c>
@@ -14467,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>43</v>
       </c>
@@ -14481,7 +15719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>44</v>
       </c>
@@ -14495,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>45</v>
       </c>
@@ -14509,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>46</v>
       </c>
@@ -14523,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>47</v>
       </c>
@@ -14537,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>48</v>
       </c>
@@ -14551,7 +15789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>49</v>
       </c>
@@ -14565,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>50</v>
       </c>
@@ -14579,7 +15817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>51</v>
       </c>
@@ -14593,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>52</v>
       </c>
@@ -14607,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>53</v>
       </c>
@@ -14621,7 +15859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>54</v>
       </c>
@@ -14635,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>55</v>
       </c>
@@ -14649,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>56</v>
       </c>
@@ -14663,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>57</v>
       </c>
@@ -14677,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>58</v>
       </c>
@@ -14691,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>59</v>
       </c>
@@ -14705,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>60</v>
       </c>
@@ -14719,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>61</v>
       </c>
@@ -14733,7 +15971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>62</v>
       </c>
@@ -14747,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>63</v>
       </c>
@@ -14773,21 +16011,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -14843,7 +16081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14902,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14961,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15020,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15079,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15138,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15197,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15256,24 +16494,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -15326,7 +16564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15382,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -15438,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -15494,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -15550,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -15606,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -15662,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -15718,20 +16956,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>42440</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -15793,7 +17031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -15858,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -15923,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -15988,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -16053,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -16118,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -16183,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -16248,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -16313,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -16378,12 +17616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -16442,7 +17680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -16504,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16566,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -16628,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -16690,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -16752,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
@@ -16814,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -16876,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8</v>
       </c>
@@ -16950,21 +18188,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="19.1640625" style="10" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -17044,7 +18282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -17163,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -17282,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -17401,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -17520,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -17639,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -17758,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -17877,7 +19115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -17996,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -18115,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -18234,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>25</v>
       </c>
@@ -18353,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>26</v>
       </c>
@@ -18472,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>27</v>
       </c>
@@ -18591,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>28</v>
       </c>
@@ -18710,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>29</v>
       </c>
@@ -18829,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>30</v>
       </c>
@@ -18948,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>31</v>
       </c>
@@ -19067,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>32</v>
       </c>
@@ -19186,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>33</v>
       </c>
@@ -19305,7 +20543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>36</v>
       </c>
@@ -19424,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>37</v>
       </c>
@@ -19543,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>38</v>
       </c>
@@ -19662,7 +20900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>39</v>
       </c>
@@ -19781,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>40</v>
       </c>
@@ -19900,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="11" customFormat="1">
+    <row r="26" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>41</v>
       </c>
@@ -20019,7 +21257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="11" customFormat="1">
+    <row r="27" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>42</v>
       </c>
@@ -20138,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="11" customFormat="1">
+    <row r="28" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>43</v>
       </c>
@@ -20257,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="11" customFormat="1">
+    <row r="29" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>44</v>
       </c>
@@ -20376,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>45</v>
       </c>
@@ -20495,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>46</v>
       </c>
@@ -20626,24 +21864,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:X41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -20714,7 +21952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20788,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20862,7 +22100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -20936,7 +22174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21010,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21084,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21158,7 +22396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21232,7 +22470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21306,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21380,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21454,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21528,7 +22766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21602,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21676,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21750,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21824,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21898,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21972,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22046,12 +23284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -22122,7 +23360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -22196,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -22270,7 +23508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -22344,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -22418,7 +23656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -22492,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -22566,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -22640,7 +23878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -22714,7 +23952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9</v>
       </c>
@@ -22788,7 +24026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -22862,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11</v>
       </c>
@@ -22936,7 +24174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12</v>
       </c>
@@ -23010,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -23084,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>14</v>
       </c>
@@ -23158,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15</v>
       </c>
@@ -23232,7 +24470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -23306,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17</v>
       </c>
@@ -23380,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>18</v>
       </c>
@@ -23454,12 +24692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -23518,7 +24756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -23580,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -23642,7 +24880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -23704,7 +24942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -23766,7 +25004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -23828,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -23890,7 +25128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -23952,7 +25190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8</v>
       </c>
@@ -24014,7 +25252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9</v>
       </c>
@@ -24076,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10</v>
       </c>
@@ -24150,24 +25388,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -24238,7 +25476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24312,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -24386,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -24460,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -24534,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -24608,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -24682,7 +25920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -24756,7 +25994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -24830,7 +26068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -24904,7 +26142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -24978,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -25052,7 +26290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -25126,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -25200,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -25274,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -25348,7 +26586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -25422,7 +26660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -25496,7 +26734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -25570,7 +26808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -25644,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -25730,24 +26968,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="C19:V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -25812,7 +27050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25880,7 +27118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25948,7 +27186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26016,7 +27254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -26084,7 +27322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -26152,7 +27390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -26220,7 +27458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -26288,7 +27526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -26356,7 +27594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -26424,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -26492,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -26560,7 +27798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -26628,7 +27866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -26696,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -26764,7 +28002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -26832,7 +28070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -26900,7 +28138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -26968,7 +28206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>171</v>
       </c>
@@ -26976,7 +28214,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>173</v>
       </c>
@@ -26987,7 +28225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>174</v>
       </c>
@@ -26998,22 +28236,22 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>182</v>
       </c>
